--- a/biology/Botanique/Goupiaceae/Goupiaceae.xlsx
+++ b/biology/Botanique/Goupiaceae/Goupiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Goupiaceae (les Goupiacées) sont une famille de plantes à fleurs dicotylédones qui comprend de 1 à 3 espèces du genre Goupia.
 Ce sont des arbres, à feuilles persistantes, des régions tropicales d'Amérique du Sud originaires de Guyane et du Brésil.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Le nom vient du genre type Goupia, nom latinisé de GOUPI employé par les Galibis  en Guyane à l'époque d'Aublet (auteur de l'espèce), pour désigner l'arbre Goupia glabra, nom qui a donné plus tard les noms kopi ou goupi de la langue Ndyuka.
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Goupia, nom latinisé de GOUPI employé par les Galibis  en Guyane à l'époque d'Aublet (auteur de l'espèce), pour désigner l'arbre Goupia glabra, nom qui a donné plus tard les noms kopi ou goupi de la langue Ndyuka.
 </t>
         </is>
       </c>
@@ -544,9 +561,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification classique de Cronquist (1981)[1] place le genre Goupia dans la famille des Celastraceae et dans l'ordre des Celastrales. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification classique de Cronquist (1981) place le genre Goupia dans la famille des Celastraceae et dans l'ordre des Celastrales. 
 La classification phylogénétique situe cette famille dans l'ordre des Malpighiales.
 </t>
         </is>
@@ -576,9 +595,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (23 mai 2010)[2] et DELTA Angio           (23 mai 2010)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (23 mai 2010) et DELTA Angio           (23 mai 2010) :
 genre Goupia</t>
         </is>
       </c>
@@ -607,9 +628,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (23 mai 2010)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (23 mai 2010) :
 genre Goupia
 Goupia glabra</t>
         </is>
